--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Jag2-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Jag2-Notch3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.70050833333333</v>
+        <v>20.81798233333333</v>
       </c>
       <c r="H2">
-        <v>62.101525</v>
+        <v>62.453947</v>
       </c>
       <c r="I2">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="J2">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N2">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O2">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P2">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q2">
-        <v>358.6347198360278</v>
+        <v>157.7950252584814</v>
       </c>
       <c r="R2">
-        <v>3227.712478524249</v>
+        <v>1420.155227326333</v>
       </c>
       <c r="S2">
-        <v>0.1499288810582576</v>
+        <v>0.05657055001908978</v>
       </c>
       <c r="T2">
-        <v>0.1499288810582576</v>
+        <v>0.05657055001908978</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.70050833333333</v>
+        <v>20.81798233333333</v>
       </c>
       <c r="H3">
-        <v>62.101525</v>
+        <v>62.453947</v>
       </c>
       <c r="I3">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="J3">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>19.771439</v>
       </c>
       <c r="O3">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P3">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q3">
-        <v>136.4262792604972</v>
+        <v>137.2004892688592</v>
       </c>
       <c r="R3">
-        <v>1227.836513344475</v>
+        <v>1234.804403419733</v>
       </c>
       <c r="S3">
-        <v>0.05703362855057553</v>
+        <v>0.04918727398480145</v>
       </c>
       <c r="T3">
-        <v>0.05703362855057552</v>
+        <v>0.04918727398480145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.70050833333333</v>
+        <v>20.81798233333333</v>
       </c>
       <c r="H4">
-        <v>62.101525</v>
+        <v>62.453947</v>
       </c>
       <c r="I4">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="J4">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N4">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O4">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P4">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q4">
-        <v>1482.546511546547</v>
+        <v>2000.231858838623</v>
       </c>
       <c r="R4">
-        <v>13342.91860391892</v>
+        <v>18002.08672954761</v>
       </c>
       <c r="S4">
-        <v>0.619785333931485</v>
+        <v>0.7170962217272133</v>
       </c>
       <c r="T4">
-        <v>0.6197853339314848</v>
+        <v>0.7170962217272134</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.70050833333333</v>
+        <v>20.81798233333333</v>
       </c>
       <c r="H5">
-        <v>62.101525</v>
+        <v>62.453947</v>
       </c>
       <c r="I5">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="J5">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N5">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O5">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P5">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q5">
-        <v>2.301793024125</v>
+        <v>3.936659641251</v>
       </c>
       <c r="R5">
-        <v>20.716137217125</v>
+        <v>35.429936771259</v>
       </c>
       <c r="S5">
-        <v>0.0009622750766923809</v>
+        <v>0.00141131826417672</v>
       </c>
       <c r="T5">
-        <v>0.0009622750766923808</v>
+        <v>0.00141131826417672</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7925996666666665</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H6">
         <v>2.377799</v>
       </c>
       <c r="I6">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="J6">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N6">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O6">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P6">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q6">
-        <v>13.73172845902555</v>
+        <v>6.007704417217889</v>
       </c>
       <c r="R6">
-        <v>123.58555613123</v>
+        <v>54.069339754961</v>
       </c>
       <c r="S6">
-        <v>0.005740611739429006</v>
+        <v>0.002153801380477069</v>
       </c>
       <c r="T6">
-        <v>0.005740611739429004</v>
+        <v>0.002153801380477069</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7925996666666665</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H7">
         <v>2.377799</v>
       </c>
       <c r="I7">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="J7">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>19.771439</v>
       </c>
       <c r="O7">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P7">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q7">
-        <v>5.223611986973443</v>
+        <v>5.223611986973445</v>
       </c>
       <c r="R7">
-        <v>47.01250788276099</v>
+        <v>47.012507882761</v>
       </c>
       <c r="S7">
-        <v>0.002183754826212882</v>
+        <v>0.00187269910889358</v>
       </c>
       <c r="T7">
-        <v>0.002183754826212881</v>
+        <v>0.001872699108893581</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7925996666666665</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H8">
         <v>2.377799</v>
       </c>
       <c r="I8">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="J8">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N8">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O8">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P8">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q8">
-        <v>56.76507320245143</v>
+        <v>76.15450331289099</v>
       </c>
       <c r="R8">
-        <v>510.8856588220629</v>
+        <v>685.3905298160189</v>
       </c>
       <c r="S8">
-        <v>0.02373089786823997</v>
+        <v>0.02730188820454768</v>
       </c>
       <c r="T8">
-        <v>0.02373089786823996</v>
+        <v>0.02730188820454768</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7925996666666665</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H9">
         <v>2.377799</v>
       </c>
       <c r="I9">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="J9">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N9">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O9">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P9">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q9">
-        <v>0.08813311993499998</v>
+        <v>0.149879804367</v>
       </c>
       <c r="R9">
-        <v>0.7931980794149998</v>
+        <v>1.348918239303</v>
       </c>
       <c r="S9">
-        <v>3.684445293548051E-05</v>
+        <v>5.373289148948651E-05</v>
       </c>
       <c r="T9">
-        <v>3.684445293548051E-05</v>
+        <v>5.373289148948651E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.953751</v>
+        <v>1.536855</v>
       </c>
       <c r="H10">
-        <v>5.861253</v>
+        <v>4.610564999999999</v>
       </c>
       <c r="I10">
-        <v>0.07812076138024482</v>
+        <v>0.06085010188305478</v>
       </c>
       <c r="J10">
-        <v>0.07812076138024483</v>
+        <v>0.06085010188305479</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N10">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O10">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P10">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q10">
-        <v>33.84858628742333</v>
+        <v>11.648971051115</v>
       </c>
       <c r="R10">
-        <v>304.63727658681</v>
+        <v>104.840739460035</v>
       </c>
       <c r="S10">
-        <v>0.01415055594672362</v>
+        <v>0.004176232415683266</v>
       </c>
       <c r="T10">
-        <v>0.01415055594672362</v>
+        <v>0.004176232415683267</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.953751</v>
+        <v>1.536855</v>
       </c>
       <c r="H11">
-        <v>5.861253</v>
+        <v>4.610564999999999</v>
       </c>
       <c r="I11">
-        <v>0.07812076138024482</v>
+        <v>0.06085010188305478</v>
       </c>
       <c r="J11">
-        <v>0.07812076138024483</v>
+        <v>0.06085010188305479</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>19.771439</v>
       </c>
       <c r="O11">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P11">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q11">
-        <v>12.87615623922967</v>
+        <v>10.128611628115</v>
       </c>
       <c r="R11">
-        <v>115.885406153067</v>
+        <v>91.15750465303499</v>
       </c>
       <c r="S11">
-        <v>0.005382935869013626</v>
+        <v>0.003631173605084336</v>
       </c>
       <c r="T11">
-        <v>0.005382935869013626</v>
+        <v>0.003631173605084336</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.953751</v>
+        <v>1.536855</v>
       </c>
       <c r="H12">
-        <v>5.861253</v>
+        <v>4.610564999999999</v>
       </c>
       <c r="I12">
-        <v>0.07812076138024482</v>
+        <v>0.06085010188305478</v>
       </c>
       <c r="J12">
-        <v>0.07812076138024483</v>
+        <v>0.06085010188305479</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N12">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O12">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P12">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q12">
-        <v>139.9253913400957</v>
+        <v>147.663989919585</v>
       </c>
       <c r="R12">
-        <v>1259.328522060861</v>
+        <v>1328.975909276265</v>
       </c>
       <c r="S12">
-        <v>0.05849644832171059</v>
+        <v>0.05293850749781641</v>
       </c>
       <c r="T12">
-        <v>0.05849644832171058</v>
+        <v>0.05293850749781642</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.953751</v>
+        <v>1.536855</v>
       </c>
       <c r="H13">
-        <v>5.861253</v>
+        <v>4.610564999999999</v>
       </c>
       <c r="I13">
-        <v>0.07812076138024482</v>
+        <v>0.06085010188305478</v>
       </c>
       <c r="J13">
-        <v>0.07812076138024483</v>
+        <v>0.06085010188305479</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N13">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O13">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P13">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q13">
-        <v>0.217247342445</v>
+        <v>0.290617743645</v>
       </c>
       <c r="R13">
-        <v>1.955226082005</v>
+        <v>2.615559692805</v>
       </c>
       <c r="S13">
-        <v>9.082124279699166E-05</v>
+        <v>0.0001041883644707666</v>
       </c>
       <c r="T13">
-        <v>9.082124279699166E-05</v>
+        <v>0.0001041883644707666</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.562510666666667</v>
+        <v>2.108971</v>
       </c>
       <c r="H14">
-        <v>4.687532000000001</v>
+        <v>6.326912999999999</v>
       </c>
       <c r="I14">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625613</v>
       </c>
       <c r="J14">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625615</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N14">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O14">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P14">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q14">
-        <v>27.07037750751556</v>
+        <v>15.98546520435633</v>
       </c>
       <c r="R14">
-        <v>243.63339756764</v>
+        <v>143.869186839207</v>
       </c>
       <c r="S14">
-        <v>0.01131689483768356</v>
+        <v>0.005730893971087678</v>
       </c>
       <c r="T14">
-        <v>0.01131689483768356</v>
+        <v>0.005730893971087679</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.562510666666667</v>
+        <v>2.108971</v>
       </c>
       <c r="H15">
-        <v>4.687532000000001</v>
+        <v>6.326912999999999</v>
       </c>
       <c r="I15">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625613</v>
       </c>
       <c r="J15">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625615</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>19.771439</v>
       </c>
       <c r="O15">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P15">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q15">
-        <v>10.29769477761645</v>
+        <v>13.89913049308967</v>
       </c>
       <c r="R15">
-        <v>92.67925299854802</v>
+        <v>125.092174437807</v>
       </c>
       <c r="S15">
-        <v>0.004304998289606198</v>
+        <v>0.004982929312842342</v>
       </c>
       <c r="T15">
-        <v>0.004304998289606197</v>
+        <v>0.004982929312842343</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.562510666666667</v>
+        <v>2.108971</v>
       </c>
       <c r="H16">
-        <v>4.687532000000001</v>
+        <v>6.326912999999999</v>
       </c>
       <c r="I16">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625613</v>
       </c>
       <c r="J16">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625615</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N16">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O16">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P16">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q16">
-        <v>111.9052102885205</v>
+        <v>202.633997667117</v>
       </c>
       <c r="R16">
-        <v>1007.146892596684</v>
+        <v>1823.705979004053</v>
       </c>
       <c r="S16">
-        <v>0.04678248377853077</v>
+        <v>0.07264561529628843</v>
       </c>
       <c r="T16">
-        <v>0.04678248377853075</v>
+        <v>0.07264561529628846</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.562510666666667</v>
+        <v>2.108971</v>
       </c>
       <c r="H17">
-        <v>4.687532000000001</v>
+        <v>6.326912999999999</v>
       </c>
       <c r="I17">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625613</v>
       </c>
       <c r="J17">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625615</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N17">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O17">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P17">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q17">
-        <v>0.17374337358</v>
+        <v>0.398804307129</v>
       </c>
       <c r="R17">
-        <v>1.56369036222</v>
+        <v>3.589238764161</v>
       </c>
       <c r="S17">
-        <v>7.263421010672429E-05</v>
+        <v>0.0001429739560376724</v>
       </c>
       <c r="T17">
-        <v>7.263421010672428E-05</v>
+        <v>0.0001429739560376725</v>
       </c>
     </row>
   </sheetData>
